--- a/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>22,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>33,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>104,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>64,68%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>57,55%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>20.51894508983168</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>33.51175287581867</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>18.89265768660577</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>11.40251434939562</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5729484972138433</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.043138855277925</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6690825527283202</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6069839141791442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>15,01; 28,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 44,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,82; 25,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 15,86</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>38,31; 98,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>46,25; 181,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>39,86; 98,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>25,28; 105,54</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>11.9671420518181</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>19.59276715103297</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>12.07739951915634</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.112123953641939</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.2951201436035398</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4624719306276677</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3723783448077043</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.2817130934342051</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>27.45869121335958</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>44.37932552044742</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.7628619294631</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.55160057709951</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9163907832914784</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.818792208012985</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.071847674686839</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.069654010194359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>60,25%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>41,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>39,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>71,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 17,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 16,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 12,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 9,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>40,22; 85,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 65,03</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>24,03; 60,57</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48,8; 97,53</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>13.97163812782896</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>11.77200731071143</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.830390497644794</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>7.980895645445408</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6374362323631149</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4160317931654585</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4116087961836338</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.6939126496552932</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>10.05051374502266</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>6.553935826837215</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5.355027983194284</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>5.796793817093794</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.4116386540256241</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.2194582974362656</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2338211027565587</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.4651991543061778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>17.98172763430385</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>16.56932043106217</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>12.31742178547826</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>10.05291271063826</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9113642139741069</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6502772519653821</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6342366634831883</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.9689836493908408</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,49%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>59,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 17,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 6,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 11,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 6,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>26,21; 100,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,18; 30,15</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>16,06; 96,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 125,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>12.6347451113509</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.463660896206026</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>6.341699674761688</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>3.599378150086123</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.5983639237346519</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.05683987738804149</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4726783232552117</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.5080276976722937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>6.460527753192173</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-3.706263472694604</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.949924313164479</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.918167196384018</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2620895237303725</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1317858180545994</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.1154056939129447</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.08972522796895534</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>18.11380068509357</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>6.71253982675538</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>10.91950658740256</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>6.214373656295296</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.028041720217682</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3014981473865028</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.9503046360446181</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.118848012400443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>15,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>68,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>40,25%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>48,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>13,04; 18,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 15,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 12,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 8,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>52,11; 88,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 57,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>34,27; 62,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>49,51; 88,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>15.96474519849083</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>11.27576899067319</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>9.992364161751658</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>7.333513994317991</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6859368742474599</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.402514084589723</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4938937825996438</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.652247541160765</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>12.76786942980273</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>7.312279940806977</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>7.125609262009664</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>5.696181801854626</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.5071673263727501</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.237221083743752</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.32719547688857</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.477271083463088</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>18.57216566876045</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>15.02840959412373</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>12.69937974843646</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>8.977192670726545</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8544196402679505</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5745491353807748</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.67208188690691</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.8558431698378475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
